--- a/src/assets/invoice_template.xlsx
+++ b/src/assets/invoice_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYUNJU_RYU\dev\smart-invoice\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49EAE7-CC60-49CC-A7ED-7C888487422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6378F7-BC98-406D-8090-F19F87BFB559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25530" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="合計請求明細書鑑" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">合計請求明細書鑑!$A$1:$Z$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">店舗別明細!$A$1:$I$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">店舗別明細!$A$1:$I$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">店舗別明細!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,40 +51,40 @@
     <rPh sb="2" eb="7">
       <t>セイキュウメイサイショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>件名</t>
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>：</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>小　　　計</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>消費税(ドル)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>消費税(円)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計ご請求金額</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【振込先口座】
 　　みずほ銀行　新橋支店(店番 130)　　普通 ： ９１５４５４８(通貨 ： USD)
 　　口座名 ： カ）ソルエムジャパン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※ 銀行振込み手数料は、貴社でご負担いただきますようお願い致します。</t>
@@ -109,14 +109,14 @@
     <rPh sb="29" eb="30">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>平素より大変お世話になっております。</t>
@@ -129,21 +129,21 @@
     <rPh sb="0" eb="2">
       <t>テンポ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
       <t>テンポメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>お支払期限</t>
     <rPh sb="1" eb="5">
       <t>シハライキゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ラベル数
@@ -154,7 +154,7 @@
     <rPh sb="6" eb="8">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品更新数
@@ -168,7 +168,7 @@
     <rPh sb="7" eb="9">
       <t>ヘイキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ご利用
@@ -179,7 +179,7 @@
     <rPh sb="4" eb="6">
       <t>ニッスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>商品
@@ -193,32 +193,21 @@
     <rPh sb="5" eb="6">
       <t>リツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="178" formatCode="@\ &quot;御中&quot;"/>
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00;[$$-409]#,##0.00"/>
     <numFmt numFmtId="180" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="#,##0&quot;枚&quot;"/>
-    <numFmt numFmtId="182" formatCode="#,##0&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="[$$-409]#,##0.000;[Red]\-[$$-409]#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,21 +276,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -323,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -463,87 +437,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,19 +474,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -591,40 +513,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="パーセント" xfId="2" builtinId="5"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1069,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0ABCB3-B6F7-4F94-8113-B7AB31039D1B}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1089,46 +1009,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="Y1" s="19"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:26" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
@@ -1143,44 +1063,44 @@
     </row>
     <row r="9" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1189,153 +1109,141 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="36" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="36" t="s">
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="36" t="s">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="27"/>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
     <row r="15" spans="1:26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="39">
-        <f>($R$15+$J$15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42">
-        <f>R15*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="43">
-        <f>$J$15*店舗別明細!$G$1</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42">
-        <f>IF(SUM(店舗別明細!$H$3:$H$58)&lt;0,"",SUM(店舗別明細!$H$3:$H$58))</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
     </row>
     <row r="16" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="27"/>
-    </row>
-    <row r="19" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
-    </row>
-    <row r="20" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="33"/>
-    </row>
-    <row r="21" spans="2:25" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="18" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+    </row>
+    <row r="19" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="19"/>
+    </row>
+    <row r="20" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="22"/>
+    </row>
+    <row r="21" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1356,7 +1264,7 @@
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="J14:M14"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1369,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F297D11-1763-43C8-A105-CD640106E044}">
-  <dimension ref="A1:GS1004"/>
+  <dimension ref="A1:GS948"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1381,8 +1289,8 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="38.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="5" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="1.75" style="2" customWidth="1"/>
     <col min="10" max="201" width="9" style="1"/>
@@ -1394,1104 +1302,214 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2">
-        <v>152</v>
-      </c>
-      <c r="H1" s="2">
-        <v>3.4499999999999999E-3</v>
-      </c>
     </row>
     <row r="2" spans="2:9" ht="39" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F3/店舗別明細!$E3,"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="8" t="str">
-        <f>IF(店舗別明細!$D3=0,"",ROUND(店舗別明細!$E3*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>IF(店舗別明細!$D3=0,"",ROUND(店舗別明細!$D3/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F4/店舗別明細!$E4,"")</f>
-        <v/>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>IF(店舗別明細!$D4=0,"",ROUND(店舗別明細!$E4*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>IF(店舗別明細!$D4=0,"",ROUND(店舗別明細!$D4/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F5/店舗別明細!$E5,"")</f>
-        <v/>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f>IF(店舗別明細!$D5=0,"",ROUND(店舗別明細!$E5*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>IF(店舗別明細!$D5=0,"",ROUND(店舗別明細!$D5/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F6/店舗別明細!$E6,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="8" t="str">
-        <f>IF(店舗別明細!$D6=0,"",ROUND(店舗別明細!$E6*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f>IF(店舗別明細!$D6=0,"",ROUND(店舗別明細!$D6/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F7/店舗別明細!$E7,"")</f>
-        <v/>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f>IF(店舗別明細!$D7=0,"",ROUND(店舗別明細!$E7*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>IF(店舗別明細!$D7=0,"",ROUND(店舗別明細!$D7/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F8/店舗別明細!$E8,"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="8" t="str">
-        <f>IF(店舗別明細!$D8=0,"",ROUND(店舗別明細!$E8*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f>IF(店舗別明細!$D8=0,"",ROUND(店舗別明細!$D8/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F9/店舗別明細!$E9,"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="8" t="str">
-        <f>IF(店舗別明細!$D9=0,"",ROUND(店舗別明細!$E9*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>IF(店舗別明細!$D9=0,"",ROUND(店舗別明細!$D9/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F10/店舗別明細!$E10,"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="8" t="str">
-        <f>IF(店舗別明細!$D10=0,"",ROUND(店舗別明細!$E10*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f>IF(店舗別明細!$D10=0,"",ROUND(店舗別明細!$D10/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F11/店舗別明細!$E11,"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="8" t="str">
-        <f>IF(店舗別明細!$D11=0,"",ROUND(店舗別明細!$E11*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f>IF(店舗別明細!$D11=0,"",ROUND(店舗別明細!$D11/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F12/店舗別明細!$E12,"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f>IF(店舗別明細!$D12=0,"",ROUND(店舗別明細!$E12*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>IF(店舗別明細!$D12=0,"",ROUND(店舗別明細!$D12/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F13/店舗別明細!$E13,"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="8" t="str">
-        <f>IF(店舗別明細!$D13=0,"",ROUND(店舗別明細!$E13*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f>IF(店舗別明細!$D13=0,"",ROUND(店舗別明細!$D13/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F14/店舗別明細!$E14,"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f>IF(店舗別明細!$D14=0,"",ROUND(店舗別明細!$E14*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f>IF(店舗別明細!$D14=0,"",ROUND(店舗別明細!$D14/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F15/店舗別明細!$E15,"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="8" t="str">
-        <f>IF(店舗別明細!$D15=0,"",ROUND(店舗別明細!$E15*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f>IF(店舗別明細!$D15=0,"",ROUND(店舗別明細!$D15/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F16/店舗別明細!$E16,"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="8" t="str">
-        <f>IF(店舗別明細!$D16=0,"",ROUND(店舗別明細!$E16*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f>IF(店舗別明細!$D16=0,"",ROUND(店舗別明細!$D16/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F17/店舗別明細!$E17,"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="8" t="str">
-        <f>IF(店舗別明細!$D17=0,"",ROUND(店舗別明細!$E17*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f>IF(店舗別明細!$D17=0,"",ROUND(店舗別明細!$D17/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F18/店舗別明細!$E18,"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="8" t="str">
-        <f>IF(店舗別明細!$D18=0,"",ROUND(店舗別明細!$E18*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f>IF(店舗別明細!$D18=0,"",ROUND(店舗別明細!$D18/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F19/店舗別明細!$E19,"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="8" t="str">
-        <f>IF(店舗別明細!$D19=0,"",ROUND(店舗別明細!$E19*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f>IF(店舗別明細!$D19=0,"",ROUND(店舗別明細!$D19/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F20/店舗別明細!$E20,"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="8" t="str">
-        <f>IF(店舗別明細!$D20=0,"",ROUND(店舗別明細!$E20*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f>IF(店舗別明細!$D20=0,"",ROUND(店舗別明細!$D20/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F21/店舗別明細!$E21,"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="8" t="str">
-        <f>IF(店舗別明細!$D21=0,"",ROUND(店舗別明細!$E21*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f>IF(店舗別明細!$D21=0,"",ROUND(店舗別明細!$D21/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F22/店舗別明細!$E22,"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="8" t="str">
-        <f>IF(店舗別明細!$D22=0,"",ROUND(店舗別明細!$E22*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f>IF(店舗別明細!$D22=0,"",ROUND(店舗別明細!$D22/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F23/店舗別明細!$E23,"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="8" t="str">
-        <f>IF(店舗別明細!$D23=0,"",ROUND(店舗別明細!$E23*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f>IF(店舗別明細!$D23=0,"",ROUND(店舗別明細!$D23/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F24/店舗別明細!$E24,"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="8" t="str">
-        <f>IF(店舗別明細!$D24=0,"",ROUND(店舗別明細!$E24*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f>IF(店舗別明細!$D24=0,"",ROUND(店舗別明細!$D24/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F25/店舗別明細!$E25,"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="8" t="str">
-        <f>IF(店舗別明細!$D25=0,"",ROUND(店舗別明細!$E25*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f>IF(店舗別明細!$D25=0,"",ROUND(店舗別明細!$D25/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F26/店舗別明細!$E26,"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="8" t="str">
-        <f>IF(店舗別明細!$D26=0,"",ROUND(店舗別明細!$E26*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f>IF(店舗別明細!$D26=0,"",ROUND(店舗別明細!$D26/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F27/店舗別明細!$E27,"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="8" t="str">
-        <f>IF(店舗別明細!$D27=0,"",ROUND(店舗別明細!$E27*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f>IF(店舗別明細!$D27=0,"",ROUND(店舗別明細!$D27/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F28/店舗別明細!$E28,"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="8" t="str">
-        <f>IF(店舗別明細!$D28=0,"",ROUND(店舗別明細!$E28*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f>IF(店舗別明細!$D28=0,"",ROUND(店舗別明細!$D28/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F29/店舗別明細!$E29,"")</f>
-        <v/>
-      </c>
-      <c r="H29" s="8" t="str">
-        <f>IF(店舗別明細!$D29=0,"",ROUND(店舗別明細!$E29*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f>IF(店舗別明細!$D29=0,"",ROUND(店舗別明細!$D29/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F30/店舗別明細!$E30,"")</f>
-        <v/>
-      </c>
-      <c r="H30" s="8" t="str">
-        <f>IF(店舗別明細!$D30=0,"",ROUND(店舗別明細!$E30*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f>IF(店舗別明細!$D30=0,"",ROUND(店舗別明細!$D30/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F31/店舗別明細!$E31,"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="8" t="str">
-        <f>IF(店舗別明細!$D31=0,"",ROUND(店舗別明細!$E31*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f>IF(店舗別明細!$D31=0,"",ROUND(店舗別明細!$D31/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F32/店舗別明細!$E32,"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="8" t="str">
-        <f>IF(店舗別明細!$D32=0,"",ROUND(店舗別明細!$E32*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f>IF(店舗別明細!$D32=0,"",ROUND(店舗別明細!$D32/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F33/店舗別明細!$E33,"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="8" t="str">
-        <f>IF(店舗別明細!$D33=0,"",ROUND(店舗別明細!$E33*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f>IF(店舗別明細!$D33=0,"",ROUND(店舗別明細!$D33/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F34/店舗別明細!$E34,"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="8" t="str">
-        <f>IF(店舗別明細!$D34=0,"",ROUND(店舗別明細!$E34*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f>IF(店舗別明細!$D34=0,"",ROUND(店舗別明細!$D34/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F35/店舗別明細!$E35,"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="8" t="str">
-        <f>IF(店舗別明細!$D35=0,"",ROUND(店舗別明細!$E35*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f>IF(店舗別明細!$D35=0,"",ROUND(店舗別明細!$D35/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F36/店舗別明細!$E36,"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="8" t="str">
-        <f>IF(店舗別明細!$D36=0,"",ROUND(店舗別明細!$E36*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f>IF(店舗別明細!$D36=0,"",ROUND(店舗別明細!$D36/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F37/店舗別明細!$E37,"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="8" t="str">
-        <f>IF(店舗別明細!$D37=0,"",ROUND(店舗別明細!$E37*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I37" s="2" t="str">
-        <f>IF(店舗別明細!$D37=0,"",ROUND(店舗別明細!$D37/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F38/店舗別明細!$E38,"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="8" t="str">
-        <f>IF(店舗別明細!$D38=0,"",ROUND(店舗別明細!$E38*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f>IF(店舗別明細!$D38=0,"",ROUND(店舗別明細!$D38/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F39/店舗別明細!$E39,"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="8" t="str">
-        <f>IF(店舗別明細!$D39=0,"",ROUND(店舗別明細!$E39*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f>IF(店舗別明細!$D39=0,"",ROUND(店舗別明細!$D39/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F40/店舗別明細!$E40,"")</f>
-        <v/>
-      </c>
-      <c r="H40" s="8" t="str">
-        <f>IF(店舗別明細!$D40=0,"",ROUND(店舗別明細!$E40*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f>IF(店舗別明細!$D40=0,"",ROUND(店舗別明細!$D40/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F41/店舗別明細!$E41,"")</f>
-        <v/>
-      </c>
-      <c r="H41" s="8" t="str">
-        <f>IF(店舗別明細!$D41=0,"",ROUND(店舗別明細!$E41*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f>IF(店舗別明細!$D41=0,"",ROUND(店舗別明細!$D41/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F42/店舗別明細!$E42,"")</f>
-        <v/>
-      </c>
-      <c r="H42" s="8" t="str">
-        <f>IF(店舗別明細!$D42=0,"",ROUND(店舗別明細!$E42*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f>IF(店舗別明細!$D42=0,"",ROUND(店舗別明細!$D42/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F43/店舗別明細!$E43,"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f>IF(店舗別明細!$D43=0,"",ROUND(店舗別明細!$E43*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f>IF(店舗別明細!$D43=0,"",ROUND(店舗別明細!$D43/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F44/店舗別明細!$E44,"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="8" t="str">
-        <f>IF(店舗別明細!$D44=0,"",ROUND(店舗別明細!$E44*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f>IF(店舗別明細!$D44=0,"",ROUND(店舗別明細!$D44/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F45/店舗別明細!$E45,"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="8" t="str">
-        <f>IF(店舗別明細!$D45=0,"",ROUND(店舗別明細!$E45*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f>IF(店舗別明細!$D45=0,"",ROUND(店舗別明細!$D45/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F46/店舗別明細!$E46,"")</f>
-        <v/>
-      </c>
-      <c r="H46" s="8" t="str">
-        <f>IF(店舗別明細!$D46=0,"",ROUND(店舗別明細!$E46*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f>IF(店舗別明細!$D46=0,"",ROUND(店舗別明細!$D46/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F47/店舗別明細!$E47,"")</f>
-        <v/>
-      </c>
-      <c r="H47" s="8" t="str">
-        <f>IF(店舗別明細!$D47=0,"",ROUND(店舗別明細!$E47*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f>IF(店舗別明細!$D47=0,"",ROUND(店舗別明細!$D47/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F48/店舗別明細!$E48,"")</f>
-        <v/>
-      </c>
-      <c r="H48" s="8" t="str">
-        <f>IF(店舗別明細!$D48=0,"",ROUND(店舗別明細!$E48*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f>IF(店舗別明細!$D48=0,"",ROUND(店舗別明細!$D48/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F49/店舗別明細!$E49,"")</f>
-        <v/>
-      </c>
-      <c r="H49" s="8" t="str">
-        <f>IF(店舗別明細!$D49=0,"",ROUND(店舗別明細!$E49*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f>IF(店舗別明細!$D49=0,"",ROUND(店舗別明細!$D49/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F50/店舗別明細!$E50,"")</f>
-        <v/>
-      </c>
-      <c r="H50" s="8" t="str">
-        <f>IF(店舗別明細!$D50=0,"",ROUND(店舗別明細!$E50*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f>IF(店舗別明細!$D50=0,"",ROUND(店舗別明細!$D50/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F51/店舗別明細!$E51,"")</f>
-        <v/>
-      </c>
-      <c r="H51" s="8" t="str">
-        <f>IF(店舗別明細!$D51=0,"",ROUND(店舗別明細!$E51*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f>IF(店舗別明細!$D51=0,"",ROUND(店舗別明細!$D51/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F52/店舗別明細!$E52,"")</f>
-        <v/>
-      </c>
-      <c r="H52" s="8" t="str">
-        <f>IF(店舗別明細!$D52=0,"",ROUND(店舗別明細!$E52*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f>IF(店舗別明細!$D52=0,"",ROUND(店舗別明細!$D52/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F53/店舗別明細!$E53,"")</f>
-        <v/>
-      </c>
-      <c r="H53" s="8" t="str">
-        <f>IF(店舗別明細!$D53=0,"",ROUND(店舗別明細!$E53*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F54/店舗別明細!$E54,"")</f>
-        <v/>
-      </c>
-      <c r="H54" s="8" t="str">
-        <f>IF(店舗別明細!$D54=0,"",ROUND(店舗別明細!$E54*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F55/店舗別明細!$E55,"")</f>
-        <v/>
-      </c>
-      <c r="H55" s="8" t="str">
-        <f>IF(店舗別明細!$D55=0,"",ROUND(店舗別明細!$E55*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F56/店舗別明細!$E56,"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="8" t="str">
-        <f>IF(店舗別明細!$D56=0,"",ROUND(店舗別明細!$E56*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f>IF(店舗別明細!$D56=0,"",ROUND(店舗別明細!$D56/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7" t="str">
-        <f>IFERROR(店舗別明細!$F57/店舗別明細!$E57,"")</f>
-        <v/>
-      </c>
-      <c r="H57" s="8" t="str">
-        <f>IF(店舗別明細!$D57=0,"",ROUND(店舗別明細!$E57*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f>IF(店舗別明細!$D57=0,"",ROUND(店舗別明細!$D57/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="10" t="str">
-        <f>IFERROR(店舗別明細!$F58/店舗別明細!$E58,"")</f>
-        <v/>
-      </c>
-      <c r="H58" s="11" t="str">
-        <f>IF(店舗別明細!$D58=0,"",ROUND(店舗別明細!$E58*$H$1*$I$3,3))</f>
-        <v/>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f>IF(店舗別明細!$D58=0,"",ROUND(店舗別明細!$D58/DAY(EOMONTH($F$1,0)),3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -5146,177 +4164,9 @@
     <row r="948" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I948" s="2"/>
     </row>
-    <row r="949" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I949" s="2"/>
-    </row>
-    <row r="950" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I950" s="2"/>
-    </row>
-    <row r="951" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I951" s="2"/>
-    </row>
-    <row r="952" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I952" s="2"/>
-    </row>
-    <row r="953" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I953" s="2"/>
-    </row>
-    <row r="954" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I954" s="2"/>
-    </row>
-    <row r="955" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I955" s="2"/>
-    </row>
-    <row r="956" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I956" s="2"/>
-    </row>
-    <row r="957" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I957" s="2"/>
-    </row>
-    <row r="958" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I958" s="2"/>
-    </row>
-    <row r="959" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I959" s="2"/>
-    </row>
-    <row r="960" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I960" s="2"/>
-    </row>
-    <row r="961" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I961" s="2"/>
-    </row>
-    <row r="962" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I962" s="2"/>
-    </row>
-    <row r="963" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I963" s="2"/>
-    </row>
-    <row r="964" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I964" s="2"/>
-    </row>
-    <row r="965" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I965" s="2"/>
-    </row>
-    <row r="966" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I966" s="2"/>
-    </row>
-    <row r="967" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I967" s="2"/>
-    </row>
-    <row r="968" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I968" s="2"/>
-    </row>
-    <row r="969" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I969" s="2"/>
-    </row>
-    <row r="970" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I970" s="2"/>
-    </row>
-    <row r="971" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I971" s="2"/>
-    </row>
-    <row r="972" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I972" s="2"/>
-    </row>
-    <row r="973" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I973" s="2"/>
-    </row>
-    <row r="974" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I974" s="2"/>
-    </row>
-    <row r="975" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I975" s="2"/>
-    </row>
-    <row r="976" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I976" s="2"/>
-    </row>
-    <row r="977" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I977" s="2"/>
-    </row>
-    <row r="978" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I978" s="2"/>
-    </row>
-    <row r="979" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I979" s="2"/>
-    </row>
-    <row r="980" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I980" s="2"/>
-    </row>
-    <row r="981" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I981" s="2"/>
-    </row>
-    <row r="982" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I982" s="2"/>
-    </row>
-    <row r="983" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I983" s="2"/>
-    </row>
-    <row r="984" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I984" s="2"/>
-    </row>
-    <row r="985" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I985" s="2"/>
-    </row>
-    <row r="986" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I986" s="2"/>
-    </row>
-    <row r="987" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I987" s="2"/>
-    </row>
-    <row r="988" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I988" s="2"/>
-    </row>
-    <row r="989" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I989" s="2"/>
-    </row>
-    <row r="990" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I990" s="2"/>
-    </row>
-    <row r="991" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I991" s="2"/>
-    </row>
-    <row r="992" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I992" s="2"/>
-    </row>
-    <row r="993" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I993" s="2"/>
-    </row>
-    <row r="994" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I994" s="2"/>
-    </row>
-    <row r="995" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I995" s="2"/>
-    </row>
-    <row r="996" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I996" s="2"/>
-    </row>
-    <row r="997" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I997" s="2"/>
-    </row>
-    <row r="998" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I998" s="2"/>
-    </row>
-    <row r="999" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I999" s="2"/>
-    </row>
-    <row r="1000" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I1000" s="2"/>
-    </row>
-    <row r="1001" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I1001" s="2"/>
-    </row>
-    <row r="1002" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I1002" s="2"/>
-    </row>
-    <row r="1003" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I1003" s="2"/>
-    </row>
-    <row r="1004" spans="9:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="I1004" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G3:G58">
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G3:G1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G3&gt;110%</formula>
     </cfRule>
@@ -5324,9 +4174,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="51" max="8" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -5340,6 +4187,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bb9526b-221f-43e7-a9ca-c97ff66af0d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0d2ed01c-d650-4e80-8773-04905e47c66a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101002E3E4D0DB1C0F54BA6D82DB94AE8FE98" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="fab01170fb8523c0a68c17ffe87dbeac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bb9526b-221f-43e7-a9ca-c97ff66af0d6" xmlns:ns3="0d2ed01c-d650-4e80-8773-04905e47c66a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3ff519f69ba9bca7f4f4c769429d0af" ns2:_="" ns3:_="">
     <xsd:import namespace="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
@@ -5546,17 +4404,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bb9526b-221f-43e7-a9ca-c97ff66af0d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0d2ed01c-d650-4e80-8773-04905e47c66a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ED7F77-F12D-4F2A-B958-2CE47797289F}">
   <ds:schemaRefs>
@@ -5566,6 +4413,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201B0B37-B479-42F4-BEDA-C85FCD3FF85C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
+    <ds:schemaRef ds:uri="0d2ed01c-d650-4e80-8773-04905e47c66a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB955BD1-E483-4700-B456-2F6C6DC8311B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5582,15 +4440,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201B0B37-B479-42F4-BEDA-C85FCD3FF85C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
-    <ds:schemaRef ds:uri="0d2ed01c-d650-4e80-8773-04905e47c66a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/invoice_template.xlsx
+++ b/src/assets/invoice_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYUNJU_RYU\dev\smart-invoice\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6378F7-BC98-406D-8090-F19F87BFB559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D284D80-D245-4B98-84B3-5B381BECC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="合計請求明細書鑑" sheetId="1" r:id="rId1"/>
@@ -200,12 +200,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="@\ &quot;御中&quot;"/>
-    <numFmt numFmtId="179" formatCode="[$$-409]#,##0.00;[$$-409]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="@\ &quot;御中&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -443,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,16 +465,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,21 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0ABCB3-B6F7-4F94-8113-B7AB31039D1B}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1009,14 +991,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="Y1" s="8"/>
+      <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
@@ -1047,8 +1029,8 @@
     </row>
     <row r="4" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:26" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
@@ -1140,26 +1122,7 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
-    </row>
+    <row r="15" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -1248,7 +1211,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="B3:X3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -1257,20 +1220,13 @@
     <mergeCell ref="F11:O11"/>
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="R14:V14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:V15"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="J14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L１２３&amp;R１２３</oddHeader>
-  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1279,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F297D11-1763-43C8-A105-CD640106E044}">
   <dimension ref="A1:GS948"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -4178,26 +4134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bb9526b-221f-43e7-a9ca-c97ff66af0d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0d2ed01c-d650-4e80-8773-04905e47c66a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101002E3E4D0DB1C0F54BA6D82DB94AE8FE98" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="fab01170fb8523c0a68c17ffe87dbeac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bb9526b-221f-43e7-a9ca-c97ff66af0d6" xmlns:ns3="0d2ed01c-d650-4e80-8773-04905e47c66a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3ff519f69ba9bca7f4f4c769429d0af" ns2:_="" ns3:_="">
     <xsd:import namespace="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
@@ -4404,10 +4340,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bb9526b-221f-43e7-a9ca-c97ff66af0d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0d2ed01c-d650-4e80-8773-04905e47c66a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ED7F77-F12D-4F2A-B958-2CE47797289F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB955BD1-E483-4700-B456-2F6C6DC8311B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
+    <ds:schemaRef ds:uri="0d2ed01c-d650-4e80-8773-04905e47c66a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4424,20 +4391,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB955BD1-E483-4700-B456-2F6C6DC8311B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ED7F77-F12D-4F2A-B958-2CE47797289F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0bb9526b-221f-43e7-a9ca-c97ff66af0d6"/>
-    <ds:schemaRef ds:uri="0d2ed01c-d650-4e80-8773-04905e47c66a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/assets/invoice_template.xlsx
+++ b/src/assets/invoice_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYUNJU_RYU\dev\smart-invoice\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D284D80-D245-4B98-84B3-5B381BECC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613549B-9C24-405C-B321-FF574B73CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
+    <workbookView xWindow="-20865" yWindow="1140" windowWidth="21600" windowHeight="11295" xr2:uid="{8EA528CF-440F-4A42-A7F1-3323D257DF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="合計請求明細書鑑" sheetId="1" r:id="rId1"/>
@@ -202,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="@\ &quot;御中&quot;"/>
+    <numFmt numFmtId="178" formatCode="@&quot;　御中&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,25 +223,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -270,6 +251,15 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -447,26 +437,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="17" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -483,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -510,20 +494,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,7 +962,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -991,46 +981,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="Y1" s="10"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" spans="1:26" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:26" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
@@ -1045,44 +1044,44 @@
     </row>
     <row r="9" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:26" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -1091,32 +1090,32 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="25" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="25" t="s">
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="27"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="25"/>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
@@ -1126,84 +1125,84 @@
     <row r="16" spans="1:26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="14"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="17"/>
     </row>
     <row r="20" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="22"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
@@ -1211,7 +1210,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B3:X3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
@@ -1222,8 +1221,12 @@
     <mergeCell ref="R14:V14"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B5:L5" xr:uid="{2F9B7F81-309D-46B1-9A02-433C284B3238}"/>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4341,6 +4344,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0bb9526b-221f-43e7-a9ca-c97ff66af0d6">
@@ -4349,15 +4361,6 @@
     <TaxCatchAll xmlns="0d2ed01c-d650-4e80-8773-04905e47c66a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4380,6 +4383,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ED7F77-F12D-4F2A-B958-2CE47797289F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201B0B37-B479-42F4-BEDA-C85FCD3FF85C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4388,12 +4399,4 @@
     <ds:schemaRef ds:uri="0d2ed01c-d650-4e80-8773-04905e47c66a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ED7F77-F12D-4F2A-B958-2CE47797289F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>